--- a/Data/guide_rna_lib/CRISPR_a_Library_sorted_file_without_duplicates_ipa_tfs.xlsx
+++ b/Data/guide_rna_lib/CRISPR_a_Library_sorted_file_without_duplicates_ipa_tfs.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Myocd</t>
+          <t>gene-Myocd</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Myocd</t>
+          <t>gene-Myocd</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -780,7 +780,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Myocd</t>
+          <t>gene-Myocd</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Myocd</t>
+          <t>gene-Myocd</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Myocd</t>
+          <t>gene-Myocd</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Myocd</t>
+          <t>gene-Myocd</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Myocd</t>
+          <t>gene-Myocd</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Myocd</t>
+          <t>gene-Myocd</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Epas1</t>
+          <t>gene-Epas1</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Epas1</t>
+          <t>gene-Epas1</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Epas1</t>
+          <t>gene-Epas1</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Epas1</t>
+          <t>gene-Epas1</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Epas1</t>
+          <t>gene-Epas1</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Epas1</t>
+          <t>gene-Epas1</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Epas1</t>
+          <t>gene-Epas1</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Epas1</t>
+          <t>gene-Epas1</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Znf263</t>
+          <t>gene-Znf263</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Znf263</t>
+          <t>gene-Znf263</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Znf263</t>
+          <t>gene-Znf263</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Znf263</t>
+          <t>gene-Znf263</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Znf263</t>
+          <t>gene-Znf263</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Znf263</t>
+          <t>gene-Znf263</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Znf263</t>
+          <t>gene-Znf263</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Znf263</t>
+          <t>gene-Znf263</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Hnf1a</t>
+          <t>gene-Hnf1a</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Hnf1a</t>
+          <t>gene-Hnf1a</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Hnf1a</t>
+          <t>gene-Hnf1a</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Hnf1a</t>
+          <t>gene-Hnf1a</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Hnf1a</t>
+          <t>gene-Hnf1a</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Hnf1a</t>
+          <t>gene-Hnf1a</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Hnf1a</t>
+          <t>gene-Hnf1a</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Hnf1a</t>
+          <t>gene-Hnf1a</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Irf4</t>
+          <t>gene-Irf4</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Irf4</t>
+          <t>gene-Irf4</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Irf4</t>
+          <t>gene-Irf4</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Irf4</t>
+          <t>gene-Irf4</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Irf4</t>
+          <t>gene-Irf4</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Irf4</t>
+          <t>gene-Irf4</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Irf4</t>
+          <t>gene-Irf4</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Irf4</t>
+          <t>gene-Irf4</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Creb3l2</t>
+          <t>gene-Creb3l2</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Creb3l2</t>
+          <t>gene-Creb3l2</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Creb3l2</t>
+          <t>gene-Creb3l2</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Creb3l2</t>
+          <t>gene-Creb3l2</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Creb3l2</t>
+          <t>gene-Creb3l2</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Creb3l2</t>
+          <t>gene-Creb3l2</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Creb3l2</t>
+          <t>gene-Creb3l2</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Creb3l2</t>
+          <t>gene-Creb3l2</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Pax4</t>
+          <t>gene-Pax4</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Pax4</t>
+          <t>gene-Pax4</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Pax4</t>
+          <t>gene-Pax4</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Pax4</t>
+          <t>gene-Pax4</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Pax4</t>
+          <t>gene-Pax4</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Pax4</t>
+          <t>gene-Pax4</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Pax4</t>
+          <t>gene-Pax4</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Pax4</t>
+          <t>gene-Pax4</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Thoc1</t>
+          <t>gene-Thoc1</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Thoc1</t>
+          <t>gene-Thoc1</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Thoc1</t>
+          <t>gene-Thoc1</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Thoc1</t>
+          <t>gene-Thoc1</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Thoc1</t>
+          <t>gene-Thoc1</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Thoc1</t>
+          <t>gene-Thoc1</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Thoc1</t>
+          <t>gene-Thoc1</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Thoc1</t>
+          <t>gene-Thoc1</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Wt1</t>
+          <t>gene-Wt1</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Wt1</t>
+          <t>gene-Wt1</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Wt1</t>
+          <t>gene-Wt1</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Wt1</t>
+          <t>gene-Wt1</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Wt1</t>
+          <t>gene-Wt1</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Wt1</t>
+          <t>gene-Wt1</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Wt1</t>
+          <t>gene-Wt1</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Wt1</t>
+          <t>gene-Wt1</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Nkx2-3</t>
+          <t>gene-Nkx2-3</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Nkx2-3</t>
+          <t>gene-Nkx2-3</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Nkx2-3</t>
+          <t>gene-Nkx2-3</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Nkx2-3</t>
+          <t>gene-Nkx2-3</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Nkx2-3</t>
+          <t>gene-Nkx2-3</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Nkx2-3</t>
+          <t>gene-Nkx2-3</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Nkx2-3</t>
+          <t>gene-Nkx2-3</t>
         </is>
       </c>
       <c r="P80" t="n">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Nkx2-3</t>
+          <t>gene-Nkx2-3</t>
         </is>
       </c>
       <c r="P81" t="n">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Foxr1</t>
+          <t>gene-Foxr1</t>
         </is>
       </c>
       <c r="P82" t="n">
@@ -7890,7 +7890,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Foxr1</t>
+          <t>gene-Foxr1</t>
         </is>
       </c>
       <c r="P83" t="n">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Foxr1</t>
+          <t>gene-Foxr1</t>
         </is>
       </c>
       <c r="P84" t="n">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Foxr1</t>
+          <t>gene-Foxr1</t>
         </is>
       </c>
       <c r="P85" t="n">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Foxr1</t>
+          <t>gene-Foxr1</t>
         </is>
       </c>
       <c r="P86" t="n">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Foxr1</t>
+          <t>gene-Foxr1</t>
         </is>
       </c>
       <c r="P87" t="n">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Foxr1</t>
+          <t>gene-Foxr1</t>
         </is>
       </c>
       <c r="P88" t="n">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Foxr1</t>
+          <t>gene-Foxr1</t>
         </is>
       </c>
       <c r="P89" t="n">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Ikzf1</t>
+          <t>gene-Ikzf1</t>
         </is>
       </c>
       <c r="P90" t="n">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Ikzf1</t>
+          <t>gene-Ikzf1</t>
         </is>
       </c>
       <c r="P91" t="n">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Ikzf1</t>
+          <t>gene-Ikzf1</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -8790,7 +8790,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Ikzf1</t>
+          <t>gene-Ikzf1</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -8880,7 +8880,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Ikzf1</t>
+          <t>gene-Ikzf1</t>
         </is>
       </c>
       <c r="P94" t="n">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Ikzf1</t>
+          <t>gene-Ikzf1</t>
         </is>
       </c>
       <c r="P95" t="n">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Ikzf1</t>
+          <t>gene-Ikzf1</t>
         </is>
       </c>
       <c r="P96" t="n">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Ikzf1</t>
+          <t>gene-Ikzf1</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Runx3</t>
+          <t>gene-Runx3</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -9330,7 +9330,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Runx3</t>
+          <t>gene-Runx3</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -9420,7 +9420,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Runx3</t>
+          <t>gene-Runx3</t>
         </is>
       </c>
       <c r="P100" t="n">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Runx3</t>
+          <t>gene-Runx3</t>
         </is>
       </c>
       <c r="P101" t="n">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Runx3</t>
+          <t>gene-Runx3</t>
         </is>
       </c>
       <c r="P102" t="n">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Runx3</t>
+          <t>gene-Runx3</t>
         </is>
       </c>
       <c r="P103" t="n">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Runx3</t>
+          <t>gene-Runx3</t>
         </is>
       </c>
       <c r="P104" t="n">
@@ -9870,7 +9870,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Runx3</t>
+          <t>gene-Runx3</t>
         </is>
       </c>
       <c r="P105" t="n">
@@ -9960,7 +9960,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Tp63</t>
+          <t>gene-Tp63</t>
         </is>
       </c>
       <c r="P106" t="n">
@@ -10050,7 +10050,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Tp63</t>
+          <t>gene-Tp63</t>
         </is>
       </c>
       <c r="P107" t="n">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Tp63</t>
+          <t>gene-Tp63</t>
         </is>
       </c>
       <c r="P108" t="n">
@@ -10230,7 +10230,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Tp63</t>
+          <t>gene-Tp63</t>
         </is>
       </c>
       <c r="P109" t="n">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Tp63</t>
+          <t>gene-Tp63</t>
         </is>
       </c>
       <c r="P110" t="n">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Tp63</t>
+          <t>gene-Tp63</t>
         </is>
       </c>
       <c r="P111" t="n">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Tp63</t>
+          <t>gene-Tp63</t>
         </is>
       </c>
       <c r="P112" t="n">
@@ -10590,7 +10590,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Tp63</t>
+          <t>gene-Tp63</t>
         </is>
       </c>
       <c r="P113" t="n">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Hnf4a</t>
+          <t>gene-Hnf4a</t>
         </is>
       </c>
       <c r="P114" t="n">
@@ -10770,7 +10770,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Hnf4a</t>
+          <t>gene-Hnf4a</t>
         </is>
       </c>
       <c r="P115" t="n">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Hnf4a</t>
+          <t>gene-Hnf4a</t>
         </is>
       </c>
       <c r="P116" t="n">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Hnf4a</t>
+          <t>gene-Hnf4a</t>
         </is>
       </c>
       <c r="P117" t="n">
@@ -11040,7 +11040,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Hnf4a</t>
+          <t>gene-Hnf4a</t>
         </is>
       </c>
       <c r="P118" t="n">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Hnf4a</t>
+          <t>gene-Hnf4a</t>
         </is>
       </c>
       <c r="P119" t="n">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Hnf4a</t>
+          <t>gene-Hnf4a</t>
         </is>
       </c>
       <c r="P120" t="n">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Hnf4a</t>
+          <t>gene-Hnf4a</t>
         </is>
       </c>
       <c r="P121" t="n">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Sirt1</t>
+          <t>gene-Sirt1</t>
         </is>
       </c>
       <c r="P122" t="n">
@@ -11490,7 +11490,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Sirt1</t>
+          <t>gene-Sirt1</t>
         </is>
       </c>
       <c r="P123" t="n">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Sirt1</t>
+          <t>gene-Sirt1</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Sirt1</t>
+          <t>gene-Sirt1</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -11760,7 +11760,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Sirt1</t>
+          <t>gene-Sirt1</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -11850,7 +11850,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Sirt1</t>
+          <t>gene-Sirt1</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Sirt1</t>
+          <t>gene-Sirt1</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -12030,7 +12030,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Sirt1</t>
+          <t>gene-Sirt1</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -12120,7 +12120,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Plag1</t>
+          <t>gene-Plag1</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -12210,7 +12210,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Plag1</t>
+          <t>gene-Plag1</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -12300,7 +12300,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Plag1</t>
+          <t>gene-Plag1</t>
         </is>
       </c>
       <c r="P132" t="n">
@@ -12390,7 +12390,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Plag1</t>
+          <t>gene-Plag1</t>
         </is>
       </c>
       <c r="P133" t="n">
@@ -12480,7 +12480,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Plag1</t>
+          <t>gene-Plag1</t>
         </is>
       </c>
       <c r="P134" t="n">
@@ -12570,7 +12570,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Plag1</t>
+          <t>gene-Plag1</t>
         </is>
       </c>
       <c r="P135" t="n">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Plag1</t>
+          <t>gene-Plag1</t>
         </is>
       </c>
       <c r="P136" t="n">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Plag1</t>
+          <t>gene-Plag1</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Bhlha15</t>
+          <t>gene-Bhlha15</t>
         </is>
       </c>
       <c r="P138" t="n">
@@ -12930,7 +12930,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Bhlha15</t>
+          <t>gene-Bhlha15</t>
         </is>
       </c>
       <c r="P139" t="n">
@@ -13020,7 +13020,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Bhlha15</t>
+          <t>gene-Bhlha15</t>
         </is>
       </c>
       <c r="P140" t="n">
@@ -13110,7 +13110,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Bhlha15</t>
+          <t>gene-Bhlha15</t>
         </is>
       </c>
       <c r="P141" t="n">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Bhlha15</t>
+          <t>gene-Bhlha15</t>
         </is>
       </c>
       <c r="P142" t="n">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Bhlha15</t>
+          <t>gene-Bhlha15</t>
         </is>
       </c>
       <c r="P143" t="n">
@@ -13380,7 +13380,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Bhlha15</t>
+          <t>gene-Bhlha15</t>
         </is>
       </c>
       <c r="P144" t="n">
@@ -13470,7 +13470,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Bhlha15</t>
+          <t>gene-Bhlha15</t>
         </is>
       </c>
       <c r="P145" t="n">
@@ -13560,7 +13560,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Klf3</t>
+          <t>gene-Klf3</t>
         </is>
       </c>
       <c r="P146" t="n">
@@ -13650,7 +13650,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Klf3</t>
+          <t>gene-Klf3</t>
         </is>
       </c>
       <c r="P147" t="n">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Klf3</t>
+          <t>gene-Klf3</t>
         </is>
       </c>
       <c r="P148" t="n">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Klf3</t>
+          <t>gene-Klf3</t>
         </is>
       </c>
       <c r="P149" t="n">
@@ -13920,7 +13920,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Klf3</t>
+          <t>gene-Klf3</t>
         </is>
       </c>
       <c r="P150" t="n">
@@ -14010,7 +14010,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Klf3</t>
+          <t>gene-Klf3</t>
         </is>
       </c>
       <c r="P151" t="n">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Klf3</t>
+          <t>gene-Klf3</t>
         </is>
       </c>
       <c r="P152" t="n">
@@ -14190,7 +14190,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Klf3</t>
+          <t>gene-Klf3</t>
         </is>
       </c>
       <c r="P153" t="n">
@@ -14280,7 +14280,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Pdx1</t>
+          <t>gene-Pdx1</t>
         </is>
       </c>
       <c r="P154" t="n">
@@ -14370,7 +14370,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Pdx1</t>
+          <t>gene-Pdx1</t>
         </is>
       </c>
       <c r="P155" t="n">
@@ -14460,7 +14460,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Pdx1</t>
+          <t>gene-Pdx1</t>
         </is>
       </c>
       <c r="P156" t="n">
@@ -14550,7 +14550,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Pdx1</t>
+          <t>gene-Pdx1</t>
         </is>
       </c>
       <c r="P157" t="n">
@@ -14640,7 +14640,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Pdx1</t>
+          <t>gene-Pdx1</t>
         </is>
       </c>
       <c r="P158" t="n">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Pdx1</t>
+          <t>gene-Pdx1</t>
         </is>
       </c>
       <c r="P159" t="n">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Pdx1</t>
+          <t>gene-Pdx1</t>
         </is>
       </c>
       <c r="P160" t="n">
@@ -14910,7 +14910,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Pdx1</t>
+          <t>gene-Pdx1</t>
         </is>
       </c>
       <c r="P161" t="n">
@@ -15000,7 +15000,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Tfec</t>
+          <t>gene-Tfec</t>
         </is>
       </c>
       <c r="P162" t="n">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Tfec</t>
+          <t>gene-Tfec</t>
         </is>
       </c>
       <c r="P163" t="n">
@@ -15180,7 +15180,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Tfec</t>
+          <t>gene-Tfec</t>
         </is>
       </c>
       <c r="P164" t="n">
@@ -15270,7 +15270,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Tfec</t>
+          <t>gene-Tfec</t>
         </is>
       </c>
       <c r="P165" t="n">
@@ -15360,7 +15360,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Tfec</t>
+          <t>gene-Tfec</t>
         </is>
       </c>
       <c r="P166" t="n">
@@ -15450,7 +15450,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Tfec</t>
+          <t>gene-Tfec</t>
         </is>
       </c>
       <c r="P167" t="n">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Tfec</t>
+          <t>gene-Tfec</t>
         </is>
       </c>
       <c r="P168" t="n">
@@ -15630,7 +15630,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Tfec</t>
+          <t>gene-Tfec</t>
         </is>
       </c>
       <c r="P169" t="n">
@@ -15720,7 +15720,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Hoxd10</t>
+          <t>gene-Hoxd10</t>
         </is>
       </c>
       <c r="P170" t="n">
@@ -15810,7 +15810,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Hoxd10</t>
+          <t>gene-Hoxd10</t>
         </is>
       </c>
       <c r="P171" t="n">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Hoxd10</t>
+          <t>gene-Hoxd10</t>
         </is>
       </c>
       <c r="P172" t="n">
@@ -15990,7 +15990,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Hoxd10</t>
+          <t>gene-Hoxd10</t>
         </is>
       </c>
       <c r="P173" t="n">
@@ -16080,7 +16080,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Hoxd10</t>
+          <t>gene-Hoxd10</t>
         </is>
       </c>
       <c r="P174" t="n">
@@ -16170,7 +16170,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Hoxd10</t>
+          <t>gene-Hoxd10</t>
         </is>
       </c>
       <c r="P175" t="n">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Hoxd10</t>
+          <t>gene-Hoxd10</t>
         </is>
       </c>
       <c r="P176" t="n">
@@ -16350,7 +16350,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Hoxd10</t>
+          <t>gene-Hoxd10</t>
         </is>
       </c>
       <c r="P177" t="n">
@@ -16440,7 +16440,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Nfe2l1</t>
+          <t>gene-Nfe2l1</t>
         </is>
       </c>
       <c r="P178" t="n">
@@ -16530,7 +16530,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Nfe2l1</t>
+          <t>gene-Nfe2l1</t>
         </is>
       </c>
       <c r="P179" t="n">
@@ -16620,7 +16620,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Nfe2l1</t>
+          <t>gene-Nfe2l1</t>
         </is>
       </c>
       <c r="P180" t="n">
@@ -16710,7 +16710,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Nfe2l1</t>
+          <t>gene-Nfe2l1</t>
         </is>
       </c>
       <c r="P181" t="n">
@@ -16800,7 +16800,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Nfe2l1</t>
+          <t>gene-Nfe2l1</t>
         </is>
       </c>
       <c r="P182" t="n">
@@ -16890,7 +16890,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Nfe2l1</t>
+          <t>gene-Nfe2l1</t>
         </is>
       </c>
       <c r="P183" t="n">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Nfe2l1</t>
+          <t>gene-Nfe2l1</t>
         </is>
       </c>
       <c r="P184" t="n">
@@ -17070,7 +17070,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Nfe2l1</t>
+          <t>gene-Nfe2l1</t>
         </is>
       </c>
       <c r="P185" t="n">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Nfe2l2</t>
+          <t>gene-Nfe2l2</t>
         </is>
       </c>
       <c r="P186" t="n">
@@ -17250,7 +17250,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Nfe2l2</t>
+          <t>gene-Nfe2l2</t>
         </is>
       </c>
       <c r="P187" t="n">
@@ -17340,7 +17340,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Nfe2l2</t>
+          <t>gene-Nfe2l2</t>
         </is>
       </c>
       <c r="P188" t="n">
@@ -17430,7 +17430,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Nfe2l2</t>
+          <t>gene-Nfe2l2</t>
         </is>
       </c>
       <c r="P189" t="n">
@@ -17520,7 +17520,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Nfe2l2</t>
+          <t>gene-Nfe2l2</t>
         </is>
       </c>
       <c r="P190" t="n">
@@ -17610,7 +17610,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Nfe2l2</t>
+          <t>gene-Nfe2l2</t>
         </is>
       </c>
       <c r="P191" t="n">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Nfe2l2</t>
+          <t>gene-Nfe2l2</t>
         </is>
       </c>
       <c r="P192" t="n">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Nfe2l2</t>
+          <t>gene-Nfe2l2</t>
         </is>
       </c>
       <c r="P193" t="n">
@@ -17880,7 +17880,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Nfe2l3</t>
+          <t>gene-Nfe2l3</t>
         </is>
       </c>
       <c r="P194" t="n">
@@ -17970,7 +17970,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Nfe2l3</t>
+          <t>gene-Nfe2l3</t>
         </is>
       </c>
       <c r="P195" t="n">
@@ -18060,7 +18060,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Nfe2l3</t>
+          <t>gene-Nfe2l3</t>
         </is>
       </c>
       <c r="P196" t="n">
@@ -18150,7 +18150,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Nfe2l3</t>
+          <t>gene-Nfe2l3</t>
         </is>
       </c>
       <c r="P197" t="n">
@@ -18240,7 +18240,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Nfe2l3</t>
+          <t>gene-Nfe2l3</t>
         </is>
       </c>
       <c r="P198" t="n">
@@ -18330,7 +18330,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Nfe2l3</t>
+          <t>gene-Nfe2l3</t>
         </is>
       </c>
       <c r="P199" t="n">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Nfe2l3</t>
+          <t>gene-Nfe2l3</t>
         </is>
       </c>
       <c r="P200" t="n">
@@ -18510,7 +18510,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Nfe2l3</t>
+          <t>gene-Nfe2l3</t>
         </is>
       </c>
       <c r="P201" t="n">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Ldb2</t>
+          <t>gene-Ldb2</t>
         </is>
       </c>
       <c r="P202" t="n">
@@ -18690,7 +18690,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Ldb2</t>
+          <t>gene-Ldb2</t>
         </is>
       </c>
       <c r="P203" t="n">
@@ -18780,7 +18780,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Ldb2</t>
+          <t>gene-Ldb2</t>
         </is>
       </c>
       <c r="P204" t="n">
@@ -18870,7 +18870,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Ldb2</t>
+          <t>gene-Ldb2</t>
         </is>
       </c>
       <c r="P205" t="n">
@@ -18960,7 +18960,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Ldb2</t>
+          <t>gene-Ldb2</t>
         </is>
       </c>
       <c r="P206" t="n">
@@ -19050,7 +19050,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Ldb2</t>
+          <t>gene-Ldb2</t>
         </is>
       </c>
       <c r="P207" t="n">
@@ -19140,7 +19140,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Ldb2</t>
+          <t>gene-Ldb2</t>
         </is>
       </c>
       <c r="P208" t="n">
@@ -19230,7 +19230,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Ldb2</t>
+          <t>gene-Ldb2</t>
         </is>
       </c>
       <c r="P209" t="n">
